--- a/Team-Data/2013-14/1-20-2013-14.xlsx
+++ b/Team-Data/2013-14/1-20-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.525</v>
+        <v>0.513</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J2" t="n">
         <v>82.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O2" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="P2" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.781</v>
+        <v>0.777</v>
       </c>
       <c r="R2" t="n">
         <v>9.199999999999999</v>
@@ -714,10 +781,10 @@
         <v>31.8</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U2" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="V2" t="n">
         <v>15.2</v>
@@ -726,25 +793,25 @@
         <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y2" t="n">
         <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.2</v>
+        <v>101.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -780,7 +847,7 @@
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -798,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -810,10 +877,10 @@
         <v>12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -926,25 +993,25 @@
         <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
@@ -959,19 +1026,19 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>14</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
         <v>21</v>
@@ -986,7 +1053,7 @@
         <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -995,13 +1062,13 @@
         <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -1030,64 +1097,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.436</v>
+        <v>0.421</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I4" t="n">
         <v>35.1</v>
       </c>
       <c r="J4" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="M4" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="N4" t="n">
         <v>0.371</v>
       </c>
       <c r="O4" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P4" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q4" t="n">
         <v>0.76</v>
       </c>
       <c r="R4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T4" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U4" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
         <v>4.1</v>
@@ -1096,28 +1163,28 @@
         <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.2</v>
+        <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>7</v>
@@ -1135,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="AM4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN4" t="n">
         <v>8</v>
@@ -1144,28 +1211,28 @@
         <v>6</v>
       </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ4" t="n">
         <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.419</v>
+        <v>0.405</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,40 +1297,40 @@
         <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>81.09999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M5" t="n">
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P5" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.731</v>
+        <v>0.729</v>
       </c>
       <c r="R5" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S5" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T5" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U5" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
         <v>12.8</v>
@@ -1275,19 +1342,19 @@
         <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AA5" t="n">
         <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1299,7 +1366,7 @@
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>13</v>
@@ -1308,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1320,40 +1387,40 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP5" t="n">
         <v>9</v>
       </c>
-      <c r="AP5" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>27</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
         <v>23</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -1394,34 +1461,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.487</v>
       </c>
       <c r="H6" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
       <c r="L6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M6" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N6" t="n">
         <v>0.334</v>
@@ -1433,31 +1500,31 @@
         <v>23.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R6" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="U6" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V6" t="n">
         <v>16.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z6" t="n">
         <v>19.3</v>
@@ -1466,31 +1533,31 @@
         <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1505,13 +1572,13 @@
         <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1529,7 +1596,7 @@
         <v>27</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AX6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.366</v>
+        <v>0.375</v>
       </c>
       <c r="H7" t="n">
         <v>49</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K7" t="n">
         <v>0.427</v>
@@ -1606,22 +1673,22 @@
         <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.362</v>
+        <v>0.366</v>
       </c>
       <c r="O7" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P7" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="R7" t="n">
         <v>12.1</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T7" t="n">
         <v>44.5</v>
@@ -1633,19 +1700,19 @@
         <v>15</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z7" t="n">
         <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AB7" t="n">
         <v>96.7</v>
@@ -1654,22 +1721,22 @@
         <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
@@ -1678,19 +1745,19 @@
         <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>22</v>
@@ -1699,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="AS7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT7" t="n">
         <v>11</v>
@@ -1708,19 +1775,19 @@
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY7" t="n">
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
         <v>21</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
         <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.581</v>
+        <v>0.571</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1782,58 +1849,58 @@
         <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.377</v>
+        <v>0.381</v>
       </c>
       <c r="O8" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P8" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="Q8" t="n">
         <v>0.794</v>
       </c>
       <c r="R8" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S8" t="n">
         <v>30.3</v>
       </c>
       <c r="T8" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U8" t="n">
         <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W8" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
         <v>4.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="AB8" t="n">
         <v>104</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1845,10 +1912,10 @@
         <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
@@ -1887,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>5</v>
@@ -1902,13 +1969,13 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -2051,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>5</v>
@@ -2075,19 +2142,19 @@
         <v>12</v>
       </c>
       <c r="AW9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
         <v>26</v>
       </c>
       <c r="BA9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.415</v>
+        <v>0.425</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,40 +2207,40 @@
         <v>38.3</v>
       </c>
       <c r="J10" t="n">
-        <v>85.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M10" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.307</v>
+        <v>0.31</v>
       </c>
       <c r="O10" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P10" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.662</v>
+        <v>0.66</v>
       </c>
       <c r="R10" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T10" t="n">
-        <v>44.7</v>
+        <v>45.1</v>
       </c>
       <c r="U10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V10" t="n">
         <v>15.5</v>
@@ -2185,31 +2252,31 @@
         <v>5.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB10" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
         <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
@@ -2227,7 +2294,7 @@
         <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -2245,16 +2312,16 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV10" t="n">
         <v>24</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
@@ -2275,7 +2342,7 @@
         <v>17</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -2304,55 +2371,55 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
         <v>26</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>0.605</v>
+        <v>0.619</v>
       </c>
       <c r="H11" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J11" t="n">
         <v>84.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L11" t="n">
         <v>9.5</v>
       </c>
       <c r="M11" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O11" t="n">
         <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R11" t="n">
         <v>11.1</v>
       </c>
       <c r="S11" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="T11" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="U11" t="n">
         <v>23</v>
@@ -2364,7 +2431,7 @@
         <v>7.8</v>
       </c>
       <c r="X11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y11" t="n">
         <v>4.7</v>
@@ -2376,10 +2443,10 @@
         <v>20.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.6</v>
+        <v>103.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -2397,13 +2464,13 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL11" t="n">
         <v>2</v>
@@ -2415,10 +2482,10 @@
         <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>24</v>
@@ -2442,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -2486,61 +2553,61 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.651</v>
+        <v>0.643</v>
       </c>
       <c r="H12" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J12" t="n">
-        <v>79</v>
+        <v>78.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="O12" t="n">
         <v>21.9</v>
       </c>
       <c r="P12" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S12" t="n">
         <v>34.1</v>
       </c>
       <c r="T12" t="n">
-        <v>45.2</v>
+        <v>45</v>
       </c>
       <c r="U12" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="V12" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W12" t="n">
         <v>7.4</v>
@@ -2549,19 +2616,19 @@
         <v>6</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.6</v>
+        <v>105.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2612,16 +2679,16 @@
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2630,13 +2697,13 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -2668,55 +2735,55 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.825</v>
+        <v>0.821</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>79.7</v>
       </c>
       <c r="K13" t="n">
         <v>0.457</v>
       </c>
       <c r="L13" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M13" t="n">
         <v>19.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O13" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P13" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
         <v>0.791</v>
       </c>
       <c r="R13" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="T13" t="n">
-        <v>44.9</v>
+        <v>44.7</v>
       </c>
       <c r="U13" t="n">
         <v>20.8</v>
@@ -2737,16 +2804,16 @@
         <v>19.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>9.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2761,7 +2828,7 @@
         <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
         <v>27</v>
@@ -2770,31 +2837,31 @@
         <v>10</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ13" t="n">
         <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS13" t="n">
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
@@ -2803,7 +2870,7 @@
         <v>22</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
@@ -2812,7 +2879,7 @@
         <v>12</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -2850,64 +2917,64 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.674</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J14" t="n">
-        <v>82.09999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L14" t="n">
         <v>8.1</v>
       </c>
       <c r="M14" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.337</v>
+        <v>0.335</v>
       </c>
       <c r="O14" t="n">
         <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="R14" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T14" t="n">
         <v>43.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
         <v>4.8</v>
@@ -2916,22 +2983,22 @@
         <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.8</v>
+        <v>105.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2946,13 +3013,13 @@
         <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>7</v>
@@ -2967,22 +3034,22 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
         <v>8</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -3032,19 +3099,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.381</v>
+        <v>0.39</v>
       </c>
       <c r="H15" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I15" t="n">
         <v>36.9</v>
@@ -3053,7 +3120,7 @@
         <v>83.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L15" t="n">
         <v>9.199999999999999</v>
@@ -3062,37 +3129,37 @@
         <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O15" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P15" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R15" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U15" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V15" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y15" t="n">
         <v>4.7</v>
@@ -3110,19 +3177,19 @@
         <v>-5.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="n">
         <v>21</v>
       </c>
-      <c r="AF15" t="n">
-        <v>23</v>
-      </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
@@ -3149,25 +3216,25 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>19</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX15" t="n">
         <v>6</v>
@@ -3179,7 +3246,7 @@
         <v>14</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -3214,67 +3281,67 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
         <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.513</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8</v>
+        <v>83</v>
       </c>
       <c r="K16" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P16" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="R16" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S16" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T16" t="n">
         <v>43.1</v>
       </c>
       <c r="U16" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W16" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y16" t="n">
         <v>5.6</v>
@@ -3283,34 +3350,34 @@
         <v>19.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB16" t="n">
         <v>95.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI16" t="n">
         <v>15</v>
       </c>
-      <c r="AI16" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>13</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>26</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3349,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX16" t="n">
         <v>20</v>
@@ -3361,13 +3428,13 @@
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="n">
         <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.707</v>
+        <v>0.725</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3414,28 +3481,28 @@
         <v>38.9</v>
       </c>
       <c r="J17" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.506</v>
       </c>
       <c r="L17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.376</v>
+        <v>0.373</v>
       </c>
       <c r="O17" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P17" t="n">
         <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R17" t="n">
         <v>7.1</v>
@@ -3447,10 +3514,10 @@
         <v>36.6</v>
       </c>
       <c r="U17" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W17" t="n">
         <v>9.199999999999999</v>
@@ -3462,19 +3529,19 @@
         <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.2</v>
+        <v>104</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>14</v>
@@ -3507,13 +3574,13 @@
         <v>7</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,10 +3592,10 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>3</v>
@@ -3540,16 +3607,16 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3680,22 +3747,22 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN18" t="n">
         <v>18</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR18" t="n">
         <v>13</v>
@@ -3713,7 +3780,7 @@
         <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>4.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
@@ -3853,7 +3920,7 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3865,10 +3932,10 @@
         <v>15</v>
       </c>
       <c r="AM19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3892,7 +3959,7 @@
         <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW19" t="n">
         <v>2</v>
@@ -3901,7 +3968,7 @@
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
         <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>0.385</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J20" t="n">
-        <v>85.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K20" t="n">
         <v>0.454</v>
@@ -3969,10 +4036,10 @@
         <v>6.2</v>
       </c>
       <c r="M20" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.385</v>
+        <v>0.383</v>
       </c>
       <c r="O20" t="n">
         <v>17.4</v>
@@ -3981,28 +4048,28 @@
         <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="R20" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W20" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X20" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
         <v>6.3</v>
@@ -4014,28 +4081,28 @@
         <v>20.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH20" t="n">
         <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ20" t="n">
         <v>6</v>
@@ -4050,25 +4117,25 @@
         <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
@@ -4080,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -4124,64 +4191,64 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>0.366</v>
+        <v>0.375</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="J21" t="n">
-        <v>82.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="L21" t="n">
         <v>8.4</v>
       </c>
       <c r="M21" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O21" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="P21" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.76</v>
+        <v>0.766</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T21" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U21" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V21" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X21" t="n">
         <v>4.4</v>
@@ -4190,25 +4257,25 @@
         <v>3.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-4.2</v>
+        <v>-3.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
         <v>23</v>
@@ -4217,10 +4284,10 @@
         <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
         <v>26</v>
@@ -4235,28 +4302,28 @@
         <v>17</v>
       </c>
       <c r="AO21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AV21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21" t="n">
         <v>12</v>
@@ -4274,10 +4341,10 @@
         <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -4384,25 +4451,25 @@
         <v>7.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH22" t="n">
         <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4414,7 +4481,7 @@
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>4</v>
@@ -4432,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>16</v>
@@ -4444,7 +4511,7 @@
         <v>11</v>
       </c>
       <c r="AX22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
@@ -4453,10 +4520,10 @@
         <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,7 +4645,7 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
@@ -4590,7 +4657,7 @@
         <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
         <v>15</v>
@@ -4599,10 +4666,10 @@
         <v>25</v>
       </c>
       <c r="AO23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
         <v>19</v>
@@ -4617,7 +4684,7 @@
         <v>20</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
@@ -4626,13 +4693,13 @@
         <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -4670,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>0.317</v>
+        <v>0.325</v>
       </c>
       <c r="H24" t="n">
         <v>48.9</v>
       </c>
       <c r="I24" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J24" t="n">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.441</v>
       </c>
       <c r="L24" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M24" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.315</v>
+        <v>0.317</v>
       </c>
       <c r="O24" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P24" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.707</v>
+        <v>0.708</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S24" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T24" t="n">
         <v>44.9</v>
       </c>
       <c r="U24" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="V24" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="W24" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AC24" t="n">
         <v>-8.699999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,13 +4827,13 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI24" t="n">
         <v>5</v>
       </c>
-      <c r="AI24" t="n">
-        <v>4</v>
-      </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
         <v>19</v>
@@ -4790,16 +4857,16 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS24" t="n">
         <v>9</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4814,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA24" t="n">
         <v>16</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
@@ -4948,7 +5015,7 @@
         <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>12</v>
@@ -4960,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
         <v>16</v>
@@ -4972,7 +5039,7 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4990,13 +5057,13 @@
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -5034,64 +5101,64 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" t="n">
         <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>0.756</v>
+        <v>0.775</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="J26" t="n">
-        <v>88.59999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
         <v>10.2</v>
       </c>
       <c r="M26" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.395</v>
+        <v>0.397</v>
       </c>
       <c r="O26" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.825</v>
+        <v>0.827</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>33.6</v>
+        <v>33.9</v>
       </c>
       <c r="T26" t="n">
-        <v>46.7</v>
+        <v>46.9</v>
       </c>
       <c r="U26" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W26" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="X26" t="n">
         <v>4.7</v>
@@ -5100,25 +5167,25 @@
         <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB26" t="n">
         <v>109.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
       </c>
       <c r="AF26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG26" t="n">
         <v>3</v>
@@ -5130,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
         <v>9</v>
@@ -5145,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5160,7 +5227,7 @@
         <v>6</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>3</v>
@@ -5172,13 +5239,13 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5309,13 +5376,13 @@
         <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
@@ -5324,19 +5391,19 @@
         <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>5</v>
       </c>
       <c r="AP27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ27" t="n">
         <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS27" t="n">
         <v>17</v>
@@ -5345,10 +5412,10 @@
         <v>13</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5360,7 +5427,7 @@
         <v>25</v>
       </c>
       <c r="AZ27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5509,13 +5576,13 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5536,7 +5603,7 @@
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -5580,55 +5647,55 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.513</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J29" t="n">
-        <v>82.5</v>
+        <v>82.2</v>
       </c>
       <c r="K29" t="n">
         <v>0.436</v>
       </c>
       <c r="L29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M29" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="N29" t="n">
         <v>0.361</v>
       </c>
       <c r="O29" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="P29" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R29" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S29" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U29" t="n">
         <v>20.2</v>
@@ -5637,7 +5704,7 @@
         <v>14.4</v>
       </c>
       <c r="W29" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>4.6</v>
@@ -5649,49 +5716,49 @@
         <v>22.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="AB29" t="n">
         <v>98.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
         <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
       </c>
       <c r="AL29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM29" t="n">
         <v>12</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>11</v>
       </c>
       <c r="AN29" t="n">
         <v>14</v>
       </c>
       <c r="AO29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
         <v>10</v>
@@ -5700,22 +5767,22 @@
         <v>8</v>
       </c>
       <c r="AR29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS29" t="n">
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
@@ -5724,7 +5791,7 @@
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-6.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG30" t="n">
         <v>26</v>
@@ -5873,31 +5940,31 @@
         <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
       </c>
       <c r="AU30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV30" t="n">
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
         <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.487</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
@@ -5965,34 +6032,34 @@
         <v>83.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M31" t="n">
         <v>20.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.382</v>
+        <v>0.385</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.73</v>
+        <v>0.727</v>
       </c>
       <c r="R31" t="n">
         <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>31.7</v>
+        <v>31.4</v>
       </c>
       <c r="T31" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U31" t="n">
         <v>23.1</v>
@@ -6001,37 +6068,37 @@
         <v>15.2</v>
       </c>
       <c r="W31" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
         <v>3.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>6</v>
@@ -6043,7 +6110,7 @@
         <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6052,22 +6119,22 @@
         <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR31" t="n">
         <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
@@ -6076,28 +6143,28 @@
         <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW31" t="n">
         <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AY31" t="n">
         <v>5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-20-2013-14</t>
+          <t>2014-01-20</t>
         </is>
       </c>
     </row>
